--- a/RN.xlsx
+++ b/RN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNIVALLE\2025\MODULO I\Calificaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNIVALLE\2025\MODULO I\Calificaciones\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,9 +640,15 @@
       <c r="F2" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
       <c r="J2" s="5">
         <f>SUM(C2:I2)</f>
         <v>27.5</v>
@@ -670,7 +676,9 @@
       <c r="G3" s="8">
         <v>10</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
       <c r="I3" s="8">
         <v>30</v>
       </c>
@@ -692,11 +700,21 @@
       <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
       <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -790,7 +808,9 @@
       <c r="G7" s="8">
         <v>10</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
       <c r="I7" s="8">
         <v>30</v>
       </c>
@@ -812,12 +832,18 @@
       <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
       <c r="G8" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
       <c r="I8" s="5">
         <v>30</v>
       </c>
@@ -839,8 +865,12 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
       <c r="G9" s="8">
         <v>7</v>
       </c>
@@ -988,7 +1018,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1033,8 +1063,12 @@
       <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
       <c r="G15" s="8">
         <v>10</v>
       </c>
@@ -1050,7 +1084,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1116,7 +1150,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1128,7 +1162,9 @@
       <c r="D18" s="8">
         <v>1.5</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
       <c r="F18" s="8">
         <v>10</v>
       </c>
@@ -1162,7 +1198,9 @@
       <c r="E19" s="5">
         <v>10</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
       <c r="G19" s="5">
         <v>10</v>
       </c>
@@ -1211,7 +1249,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1277,7 +1315,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1292,7 +1330,9 @@
       <c r="E23" s="5">
         <v>10</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
       <c r="G23" s="5">
         <v>10</v>
       </c>
@@ -1320,13 +1360,21 @@
       <c r="D24" s="8">
         <v>0</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
       <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1340,6 +1388,11 @@
     <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="A10" r:id="rId5"/>
     <hyperlink ref="A17" r:id="rId6"/>
+    <hyperlink ref="A21" r:id="rId7"/>
+    <hyperlink ref="A14" r:id="rId8"/>
+    <hyperlink ref="A16" r:id="rId9"/>
+    <hyperlink ref="A23" r:id="rId10"/>
+    <hyperlink ref="A18" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
